--- a/Макеты/ВА_КонтекстныйПересчетИсходный.xlsx
+++ b/Макеты/ВА_КонтекстныйПересчетИсходный.xlsx
@@ -27,11 +27,11 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Administrator (3/3/2023 8:49:29 PM): 
+          <t>Administrator (3/6/2023 11:13:08 AM): 
 First cell
-Administrator (3/3/2023 8:49:30 PM): 
+Administrator (3/6/2023 11:13:08 AM): 
 First cell 2
-Administrator (3/3/2023 8:49:33 PM): 
+Administrator (3/6/2023 11:13:11 AM): 
 First cell 3</t>
         </r>
       </text>
@@ -44,7 +44,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Administrator (3/3/2023 8:49:30 PM): 
+          <t>Administrator (3/6/2023 11:13:08 AM): 
 Последняя ячейка</t>
         </r>
       </text>

--- a/Макеты/ВА_КонтекстныйПересчетИсходный.xlsx
+++ b/Макеты/ВА_КонтекстныйПересчетИсходный.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,12 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Administrator (3/6/2023 11:13:08 AM): 
-First cell
-Administrator (3/6/2023 11:13:08 AM): 
-First cell 2
-Administrator (3/6/2023 11:13:11 AM): 
-First cell 3</t>
+          <t>Администратор (27.02.2023 11:16:40): 
+Первая ячейка
+Администратор (27.02.2023 11:16:41): 
+Первая ячейка 2
+Администратор (27.02.2023 11:16:46): 
+Первая ячейка 3</t>
         </r>
       </text>
     </comment>
@@ -44,7 +44,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Administrator (3/6/2023 11:13:08 AM): 
+          <t>Администратор (27.02.2023 11:16:40): 
 Последняя ячейка</t>
         </r>
       </text>
@@ -56,58 +56,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>VA - Recalculation in context (pivot table)</t>
-  </si>
-  <si>
-    <t>January 2021</t>
-  </si>
-  <si>
-    <t>February 2021</t>
-  </si>
-  <si>
-    <t>March 2021</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Coefficient</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Line</t>
-  </si>
-  <si>
-    <t>1/1/2021</t>
-  </si>
-  <si>
-    <t>Goods</t>
-  </si>
-  <si>
-    <t>5C:Corporate performance management</t>
-  </si>
-  <si>
-    <t>Line1</t>
-  </si>
-  <si>
-    <t>2C:Corporation</t>
-  </si>
-  <si>
-    <t>4C:Enterprise 8.3 CORP. Server License (x86-64)</t>
-  </si>
-  <si>
-    <t>1C:ERP. Corporate performance management</t>
-  </si>
-  <si>
-    <t>3C:Enterprise 8 CORP. Client license for 100 users</t>
+    <t>ВА - Контекстный пересчет (сводная таблица)</t>
+  </si>
+  <si>
+    <t>Январь 2021 г.</t>
+  </si>
+  <si>
+    <t>Февраль 2021 г.</t>
+  </si>
+  <si>
+    <t>Март 2021 г.</t>
+  </si>
+  <si>
+    <t>ИТОГО</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Коэффициент</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Строка</t>
+  </si>
+  <si>
+    <t>01.01.2021</t>
+  </si>
+  <si>
+    <t>Товары</t>
+  </si>
+  <si>
+    <t>1С:Управление холдингом 8</t>
+  </si>
+  <si>
+    <t>Строка1</t>
+  </si>
+  <si>
+    <t>1С:Корпорация</t>
+  </si>
+  <si>
+    <t>1С:Предприятие 8.3 КОРП. Лицензия на сервер (x86-64)</t>
+  </si>
+  <si>
+    <t>1С:ERP. Управление холдингом</t>
+  </si>
+  <si>
+    <t>1С:Предприятие 8 КОРП. Клиентская лицензия на 100 рабочих мест</t>
   </si>
 </sst>
 </file>
@@ -296,20 +296,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0"/>
-    <xf numFmtId="0" fontId="0" applyAlignment="true">
+    <xf/>
+    <xf applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf fontId="2" fillId="2" borderId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf fontId="3" fillId="2" borderId="3" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf fontId="4" fillId="3" borderId="4" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" borderId="5" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -318,10 +318,10 @@
     <xf numFmtId="3" fontId="5" borderId="5" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf fontId="5" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf fontId="5" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="0"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="5" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -330,14 +330,14 @@
     <xf numFmtId="3" fontId="5" fillId="4" borderId="5" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf fontId="5" fillId="4" borderId="5" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf fontId="5" fillId="4" borderId="5" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" wrapText="0" indent="3"/>
+    <xf fontId="5" fillId="3" borderId="4" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,7 +724,7 @@
       </c>
       <c r="U7" s="13" t="e"/>
     </row>
-    <row r="8" ht="11" customHeight="true" outlineLevel="1">
+    <row r="8" ht="22" customHeight="true" outlineLevel="1">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -850,7 +850,7 @@
       </c>
       <c r="U9" s="13" t="e"/>
     </row>
-    <row r="10" ht="11" customHeight="true" outlineLevel="1">
+    <row r="10" ht="22" customHeight="true" outlineLevel="1">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
@@ -922,7 +922,7 @@
     <mergeCell ref="Q2:U2"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
-  <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>
+  <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter alignWithMargins="true" scaleWithDoc="true"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Макеты/ВА_КонтекстныйПересчетИсходный.xlsx
+++ b/Макеты/ВА_КонтекстныйПересчетИсходный.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,12 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Администратор (27.02.2023 11:16:40): 
-Первая ячейка
-Администратор (27.02.2023 11:16:41): 
-Первая ячейка 2
-Администратор (27.02.2023 11:16:46): 
-Первая ячейка 3</t>
+          <t>Administrator (4/27/2023 3:40:40 PM): 
+First cell
+Administrator (4/27/2023 3:40:41 PM): 
+First cell 2
+Administrator (4/27/2023 3:40:44 PM): 
+First cell 3</t>
         </r>
       </text>
     </comment>
@@ -44,7 +44,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Администратор (27.02.2023 11:16:40): 
+          <t>Administrator (4/27/2023 3:40:40 PM): 
 Последняя ячейка</t>
         </r>
       </text>
@@ -56,58 +56,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>ВА - Контекстный пересчет (сводная таблица)</t>
-  </si>
-  <si>
-    <t>Январь 2021 г.</t>
-  </si>
-  <si>
-    <t>Февраль 2021 г.</t>
-  </si>
-  <si>
-    <t>Март 2021 г.</t>
-  </si>
-  <si>
-    <t>ИТОГО</t>
-  </si>
-  <si>
-    <t>Количество</t>
-  </si>
-  <si>
-    <t>Коэффициент</t>
-  </si>
-  <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Строка</t>
-  </si>
-  <si>
-    <t>01.01.2021</t>
-  </si>
-  <si>
-    <t>Товары</t>
-  </si>
-  <si>
-    <t>1С:Управление холдингом 8</t>
-  </si>
-  <si>
-    <t>Строка1</t>
-  </si>
-  <si>
-    <t>1С:Корпорация</t>
-  </si>
-  <si>
-    <t>1С:Предприятие 8.3 КОРП. Лицензия на сервер (x86-64)</t>
-  </si>
-  <si>
-    <t>1С:ERP. Управление холдингом</t>
-  </si>
-  <si>
-    <t>1С:Предприятие 8 КОРП. Клиентская лицензия на 100 рабочих мест</t>
+    <t>VA - Recalculation in context (pivot table)</t>
+  </si>
+  <si>
+    <t>January 2021</t>
+  </si>
+  <si>
+    <t>February 2021</t>
+  </si>
+  <si>
+    <t>March 2021</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>1/1/2021</t>
+  </si>
+  <si>
+    <t>Goods</t>
+  </si>
+  <si>
+    <t>5C:Corporate performance management</t>
+  </si>
+  <si>
+    <t>Line1</t>
+  </si>
+  <si>
+    <t>2C:Corporation</t>
+  </si>
+  <si>
+    <t>4C:Enterprise 8.3 CORP. Server License (x86-64)</t>
+  </si>
+  <si>
+    <t>1C:ERP. Corporate performance management</t>
+  </si>
+  <si>
+    <t>3C:Enterprise 8 CORP. Client license for 100 users</t>
   </si>
 </sst>
 </file>
@@ -296,20 +296,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf/>
-    <xf applyAlignment="true">
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="0"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="0"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="3" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="4" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" borderId="5" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -318,10 +318,10 @@
     <xf numFmtId="3" fontId="5" borderId="5" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
-    <xf fontId="5" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
-    <xf fontId="5" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="0"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="5" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -330,13 +330,13 @@
     <xf numFmtId="3" fontId="5" fillId="4" borderId="5" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="5" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="5" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="0"/>
     </xf>
-    <xf fontId="5" fillId="3" borderId="4" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
@@ -922,7 +922,7 @@
     <mergeCell ref="Q2:U2"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
-  <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait"/>
+  <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>
   <headerFooter alignWithMargins="true" scaleWithDoc="true"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Макеты/ВА_КонтекстныйПересчетИсходный.xlsx
+++ b/Макеты/ВА_КонтекстныйПересчетИсходный.xlsx
@@ -27,11 +27,11 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Administrator (4/27/2023 3:40:40 PM): 
+          <t>Administrator (6/20/2023 10:46:37 AM): 
 First cell
-Administrator (4/27/2023 3:40:41 PM): 
+Administrator (6/20/2023 10:46:38 AM): 
 First cell 2
-Administrator (4/27/2023 3:40:44 PM): 
+Administrator (6/20/2023 10:46:40 AM): 
 First cell 3</t>
         </r>
       </text>
@@ -44,7 +44,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Administrator (4/27/2023 3:40:40 PM): 
+          <t>Administrator (6/20/2023 10:46:37 AM): 
 Последняя ячейка</t>
         </r>
       </text>
